--- a/records.xlsx
+++ b/records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,62 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>RollNo</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>20d_9m_2022</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>21d_9m_2022</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>12d_12m_2022</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>21d_06m_2022</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>12d_23m_2020</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>12d_02m_2021</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>23d_10m_2020</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>12d_03m_2022</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>22d_9m_2022</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>12d_12m_4040</t>
+          <t>25d_9m_2022</t>
         </is>
       </c>
     </row>
@@ -493,171 +448,6 @@
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sneha bhatt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Prasit Sahu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>present</t>
         </is>
